--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.2641502568902645</v>
+        <v>7.2641502631186556</v>
       </c>
       <c r="C2">
-        <v>13.515953304864972</v>
+        <v>13.51595330489252</v>
       </c>
       <c r="D2">
-        <v>19.757491188718127</v>
+        <v>19.757491162869993</v>
       </c>
       <c r="E2">
-        <v>37.122357846922341</v>
+        <v>37.122357828833394</v>
       </c>
       <c r="F2">
-        <v>20.80010831221702</v>
+        <v>20.800108269851457</v>
       </c>
       <c r="G2">
-        <v>8.8192651791227537</v>
+        <v>8.8192651708217227</v>
       </c>
       <c r="H2">
-        <v>14.638204290653045</v>
+        <v>14.638204276338865</v>
       </c>
       <c r="I2">
-        <v>21.435522244549283</v>
+        <v>21.435522238146064</v>
       </c>
       <c r="J2">
-        <v>19.761168709295447</v>
+        <v>19.76116869161125</v>
       </c>
       <c r="K2">
-        <v>7.2692007773214389</v>
+        <v>7.2692007566835564</v>
       </c>
       <c r="L2">
-        <v>4.1560384584315528</v>
+        <v>4.1560384651367874</v>
       </c>
       <c r="M2">
-        <v>-5.7153704307526514</v>
+        <v>-5.715370426742453</v>
       </c>
       <c r="N2">
-        <v>23.006882714976864</v>
+        <v>23.006882713010231</v>
       </c>
       <c r="O2">
-        <v>16.736014965361022</v>
+        <v>16.736014924114905</v>
       </c>
       <c r="P2">
-        <v>31.338334186221751</v>
+        <v>31.338334188728123</v>
       </c>
       <c r="Q2">
-        <v>1.4634964345248784</v>
+        <v>1.4634964257177168</v>
       </c>
       <c r="R2">
-        <v>-6.7848162476356624</v>
+        <v>-6.7848162828058793</v>
       </c>
       <c r="S2">
-        <v>33.769237444561853</v>
+        <v>33.769237470985559</v>
       </c>
       <c r="T2">
-        <v>37.301261670390851</v>
+        <v>37.301261687055018</v>
       </c>
       <c r="U2">
-        <v>2.8026655571576029</v>
+        <v>2.8026655213180547</v>
       </c>
       <c r="V2">
-        <v>12.936455937709775</v>
+        <v>12.93645590501643</v>
       </c>
       <c r="W2">
-        <v>-16.795323398232405</v>
+        <v>-16.795323415237277</v>
       </c>
       <c r="X2">
-        <v>4.7395334166419705</v>
+        <v>4.7395334140409497</v>
       </c>
       <c r="Y2">
-        <v>35.405841285953663</v>
+        <v>35.405841248702373</v>
       </c>
       <c r="Z2">
-        <v>21.694346045653933</v>
+        <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>25.947834044409507</v>
+        <v>25.947834012778575</v>
       </c>
       <c r="AB2">
-        <v>18.389491024181567</v>
+        <v>18.389490975459157</v>
       </c>
       <c r="AC2">
-        <v>3.6614975505448353</v>
+        <v>3.6614975255673574</v>
       </c>
       <c r="AD2">
-        <v>37.777599063643279</v>
+        <v>37.777598996272999</v>
       </c>
       <c r="AE2">
-        <v>19.350450435244589</v>
+        <v>19.35045039933598</v>
       </c>
       <c r="AF2">
-        <v>24.635571257896274</v>
+        <v>24.635571228402277</v>
       </c>
       <c r="AG2">
-        <v>27.496012651176173</v>
+        <v>27.496012611461275</v>
       </c>
       <c r="AH2">
-        <v>27.876577970912898</v>
+        <v>27.876577935819245</v>
       </c>
       <c r="AI2">
-        <v>18.827325093537194</v>
+        <v>18.827325052657535</v>
       </c>
       <c r="AJ2">
-        <v>17.144701244015177</v>
+        <v>17.144701216052361</v>
       </c>
       <c r="AK2">
-        <v>20.497179427595334</v>
+        <v>20.497179397353268</v>
       </c>
       <c r="AL2">
-        <v>-0.67708718217927055</v>
+        <v>-0.67708720172669434</v>
       </c>
       <c r="AM2">
-        <v>23.261607227371794</v>
+        <v>23.26160720194569</v>
       </c>
       <c r="AN2">
-        <v>26.465142186817115</v>
+        <v>26.465142133051877</v>
       </c>
       <c r="AO2">
-        <v>46.309431966814962</v>
+        <v>46.309431946028504</v>
       </c>
       <c r="AP2">
-        <v>27.563994036641997</v>
+        <v>27.563993990100222</v>
       </c>
       <c r="AQ2">
-        <v>0.6150033636222676</v>
+        <v>0.6150033377607953</v>
       </c>
       <c r="AR2">
-        <v>37.948620479236254</v>
+        <v>37.948620462770052</v>
       </c>
       <c r="AS2">
-        <v>31.663432893951104</v>
+        <v>31.663432851190031</v>
       </c>
       <c r="AT2">
-        <v>15.786326771303273</v>
+        <v>15.786326740966711</v>
       </c>
       <c r="AU2">
-        <v>28.218117779037744</v>
+        <v>28.218117714500778</v>
       </c>
       <c r="AV2">
-        <v>5.1062206974513948</v>
+        <v>5.1062206422037351</v>
       </c>
       <c r="AW2">
-        <v>9.6545045688897364</v>
+        <v>9.6545045302682286</v>
       </c>
       <c r="AX2">
-        <v>29.721764550830144</v>
+        <v>29.721764504102467</v>
       </c>
       <c r="AY2">
-        <v>43.107569289998594</v>
+        <v>43.107569247971547</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0476729487715861</v>
+        <v>8.0476729315599353</v>
       </c>
       <c r="C3">
-        <v>10.32595663199219</v>
+        <v>10.325956596772961</v>
       </c>
       <c r="D3">
-        <v>31.439177887897319</v>
+        <v>31.439177822270871</v>
       </c>
       <c r="E3">
-        <v>27.498006111362272</v>
+        <v>27.49800607679601</v>
       </c>
       <c r="F3">
-        <v>12.407471484928305</v>
+        <v>12.407471448631052</v>
       </c>
       <c r="G3">
-        <v>21.778022454276432</v>
+        <v>21.778022436228138</v>
       </c>
       <c r="H3">
-        <v>0.61518421799629919</v>
+        <v>0.61518419890345222</v>
       </c>
       <c r="I3">
-        <v>7.3853780333336827</v>
+        <v>7.3853780189376952</v>
       </c>
       <c r="J3">
-        <v>24.165212600760832</v>
+        <v>24.165212591067462</v>
       </c>
       <c r="K3">
-        <v>56.383620429647699</v>
+        <v>56.38362042799934</v>
       </c>
       <c r="L3">
-        <v>32.889205467690104</v>
+        <v>32.889205442368436</v>
       </c>
       <c r="M3">
-        <v>5.0154548145119291</v>
+        <v>5.0150901233760345</v>
       </c>
       <c r="N3">
-        <v>16.455616334405779</v>
+        <v>16.455616307195758</v>
       </c>
       <c r="O3">
-        <v>-18.732829752866003</v>
+        <v>-18.732829766642251</v>
       </c>
       <c r="P3">
-        <v>26.585085882621623</v>
+        <v>26.585085823137568</v>
       </c>
       <c r="Q3">
-        <v>13.740506945924583</v>
+        <v>13.740506934662752</v>
       </c>
       <c r="R3">
-        <v>-2.4586860194178843</v>
+        <v>-2.4586860437331035</v>
       </c>
       <c r="S3">
-        <v>28.769803692288747</v>
+        <v>28.769803685291418</v>
       </c>
       <c r="T3">
-        <v>34.211374024888514</v>
+        <v>34.211373993605498</v>
       </c>
       <c r="U3">
-        <v>19.489736638428859</v>
+        <v>19.489736615380476</v>
       </c>
       <c r="V3">
-        <v>24.666954729333629</v>
+        <v>24.666954707127921</v>
       </c>
       <c r="W3">
-        <v>-1.7903250690398824</v>
+        <v>-1.7903250896843617</v>
       </c>
       <c r="X3">
-        <v>-2.9221554617856484</v>
+        <v>-2.9221554817546389</v>
       </c>
       <c r="Y3">
-        <v>38.354444226914381</v>
+        <v>38.354444178086268</v>
       </c>
       <c r="Z3">
-        <v>23.777280095507493</v>
+        <v>23.777280052305926</v>
       </c>
       <c r="AA3">
-        <v>28.182645300019537</v>
+        <v>28.182645264396715</v>
       </c>
       <c r="AB3">
-        <v>24.212986798292775</v>
+        <v>24.212986751386399</v>
       </c>
       <c r="AC3">
-        <v>42.335671874447954</v>
+        <v>42.33567184618034</v>
       </c>
       <c r="AD3">
-        <v>39.912816935061421</v>
+        <v>39.912816899250871</v>
       </c>
       <c r="AE3">
-        <v>36.205222908703654</v>
+        <v>36.20522288788181</v>
       </c>
       <c r="AF3">
-        <v>21.151441567593295</v>
+        <v>21.151441533003823</v>
       </c>
       <c r="AG3">
-        <v>13.032686316264799</v>
+        <v>13.032686292649926</v>
       </c>
       <c r="AH3">
-        <v>8.0855489333817232</v>
+        <v>8.0855489106240643</v>
       </c>
       <c r="AI3">
-        <v>65.837073472431442</v>
+        <v>65.837073425965215</v>
       </c>
       <c r="AJ3">
-        <v>39.974132022686419</v>
+        <v>39.974132003956939</v>
       </c>
       <c r="AK3">
-        <v>30.029095973944614</v>
+        <v>30.02909592525393</v>
       </c>
       <c r="AL3">
-        <v>16.676137081691376</v>
+        <v>16.676137039333408</v>
       </c>
       <c r="AM3">
-        <v>14.833894780660092</v>
+        <v>14.833894731861719</v>
       </c>
       <c r="AN3">
-        <v>-14.627478719547007</v>
+        <v>-14.627478740348684</v>
       </c>
       <c r="AO3">
-        <v>37.945496489595712</v>
+        <v>37.945496398415116</v>
       </c>
       <c r="AP3">
-        <v>9.6081685116117157</v>
+        <v>9.6081684752772851</v>
       </c>
       <c r="AQ3">
-        <v>19.172040804176792</v>
+        <v>19.172040743846104</v>
       </c>
       <c r="AR3">
-        <v>45.734079245937096</v>
+        <v>45.734079222020476</v>
       </c>
       <c r="AS3">
-        <v>30.052716829084186</v>
+        <v>30.052716797804308</v>
       </c>
       <c r="AT3">
-        <v>25.78326960489084</v>
+        <v>25.783269550462943</v>
       </c>
       <c r="AU3">
-        <v>18.444946314031995</v>
+        <v>18.444946311979351</v>
       </c>
       <c r="AV3">
-        <v>9.8611339846617234</v>
+        <v>9.8611339395199646</v>
       </c>
       <c r="AW3">
-        <v>9.3569717199532985</v>
+        <v>9.3569716844294071</v>
       </c>
       <c r="AX3">
-        <v>14.024380072581597</v>
+        <v>14.024380042749346</v>
       </c>
       <c r="AY3">
-        <v>43.754098369060927</v>
+        <v>43.754098313030276</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.2641502631186556</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13.51595330489252</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>19.757491162869993</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37.122357828833394</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>20.800108269851457</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.8192651708217227</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14.638204276338865</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.435522238146064</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.76116869161125</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.2692007566835564</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.1560384651367874</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-5.715370426742453</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.006882713010231</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.736014924114905</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>31.338334188728123</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.4634964257177168</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-6.7848162828058793</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>33.769237470985559</v>
+        <v>23.258441058602124</v>
       </c>
       <c r="T2">
         <v>37.301261687055018</v>
@@ -588,55 +477,55 @@
         <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>25.947834012778575</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.389490975459157</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.6614975255673574</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>37.777598996272999</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>19.35045039933598</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>24.635571228402277</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>27.496012611461275</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>27.876577935819245</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.827325052657535</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>17.144701216052361</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>20.497179397353268</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.67708720172669434</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>23.26160720194569</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>26.465142133051877</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>46.309431946028504</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>27.563993990100222</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.6150033377607953</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>37.948620462770052</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.0476729315599353</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.325956596772961</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>31.439177822270871</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>27.49800607679601</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.407471448631052</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>21.778022436228138</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.61518419890345222</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.3853780189376952</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>24.165212591067462</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>56.38362042799934</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.889205442368436</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.0150901233760345</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.455616307195758</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-18.732829766642251</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>26.585085823137568</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.740506934662752</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-2.4586860437331035</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>28.769803685291418</v>
@@ -743,55 +629,55 @@
         <v>23.777280052305926</v>
       </c>
       <c r="AA3">
-        <v>28.182645264396715</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>24.212986751386399</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>42.33567184618034</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>39.912816899250871</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>36.20522288788181</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.151441533003823</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.032686292649926</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.0855489106240643</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>65.837073425965215</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>39.974132003956939</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>30.02909592525393</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>16.676137039333408</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.833894731861719</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-14.627478740348684</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>37.945496398415116</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>9.6081684752772851</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>19.172040743846104</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>45.734079222020476</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7.2641502568902645</v>
-      </c>
       <c r="C2">
-        <v>8.5633763868907522</v>
-      </c>
-      <c r="D2">
-        <v>19.757491188718127</v>
-      </c>
-      <c r="E2">
-        <v>37.122357846922341</v>
+        <v>-6.7848162828058793</v>
       </c>
       <c r="F2">
         <v>20.80010831221702</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0476729487715861</v>
+        <v>-7.741317205820601</v>
       </c>
       <c r="C3">
-        <v>10.32595663199219</v>
+        <v>-2.4586860437331035</v>
       </c>
       <c r="D3">
-        <v>31.439177887897319</v>
+        <v>-13.611244854621201</v>
       </c>
       <c r="E3">
-        <v>27.498006111362272</v>
+        <v>24.051862618030981</v>
       </c>
       <c r="F3">
         <v>12.407471484928305</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.2641502568902645</v>
-      </c>
-      <c r="C2">
-        <v>8.5633763868907522</v>
+        <v>20.397789610916238</v>
       </c>
       <c r="D2">
-        <v>19.757491188718127</v>
-      </c>
-      <c r="E2">
-        <v>37.122357846922341</v>
+        <v>23.26160720194569</v>
       </c>
       <c r="F2">
         <v>20.80010831221702</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0476729487715861</v>
+        <v>16.455616307195758</v>
       </c>
       <c r="C3">
-        <v>10.32595663199219</v>
+        <v>-7.741317205820601</v>
       </c>
       <c r="D3">
-        <v>31.439177887897319</v>
+        <v>14.833894731861719</v>
       </c>
       <c r="E3">
-        <v>41.312682409704195</v>
+        <v>-13.611244854621201</v>
       </c>
       <c r="F3">
         <v>12.407471484928305</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7.2641502631186556</v>
+      </c>
+      <c r="C2">
+        <v>8.5633763754208179</v>
+      </c>
+      <c r="D2">
+        <v>19.757491162869993</v>
+      </c>
+      <c r="E2">
+        <v>37.122357828833394</v>
+      </c>
+      <c r="F2">
+        <v>20.800108269851457</v>
+      </c>
+      <c r="G2">
+        <v>14.430059118991098</v>
+      </c>
+      <c r="H2">
+        <v>14.638204276338865</v>
+      </c>
+      <c r="I2">
+        <v>28.664074742720224</v>
+      </c>
+      <c r="J2">
+        <v>19.76116869161125</v>
+      </c>
+      <c r="K2">
+        <v>7.2692007566835564</v>
+      </c>
+      <c r="L2">
+        <v>2.9054099959930859</v>
+      </c>
+      <c r="M2">
+        <v>3.6447894408062607</v>
+      </c>
+      <c r="N2">
         <v>20.397789610916238</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>33.315807047252299</v>
+      </c>
+      <c r="Q2">
+        <v>1.4634964257177168</v>
+      </c>
+      <c r="R2">
+        <v>-6.7848162828058793</v>
+      </c>
+      <c r="T2">
+        <v>30.528725290911709</v>
+      </c>
+      <c r="U2">
+        <v>2.8026655213180547</v>
+      </c>
+      <c r="V2">
+        <v>19.541788883117476</v>
+      </c>
+      <c r="W2">
+        <v>-16.795323415237277</v>
+      </c>
+      <c r="X2">
+        <v>4.7395334140409497</v>
+      </c>
+      <c r="Y2">
+        <v>35.405841248702373</v>
+      </c>
+      <c r="Z2">
+        <v>21.694346004506183</v>
+      </c>
+      <c r="AA2">
+        <v>25.947834012778575</v>
+      </c>
+      <c r="AB2">
+        <v>18.389490975459157</v>
+      </c>
+      <c r="AC2">
+        <v>3.6614975255673574</v>
+      </c>
+      <c r="AD2">
+        <v>37.777598996272999</v>
+      </c>
+      <c r="AE2">
+        <v>19.35045039933598</v>
+      </c>
+      <c r="AF2">
+        <v>24.635571228402277</v>
+      </c>
+      <c r="AG2">
+        <v>27.496012611461275</v>
+      </c>
+      <c r="AH2">
+        <v>27.876577935819245</v>
+      </c>
+      <c r="AI2">
+        <v>18.827325052657535</v>
+      </c>
+      <c r="AJ2">
+        <v>17.144701216052361</v>
+      </c>
+      <c r="AK2">
+        <v>20.497179397353268</v>
+      </c>
+      <c r="AL2">
+        <v>-0.67708720172669434</v>
+      </c>
+      <c r="AM2">
         <v>23.26160720194569</v>
       </c>
-      <c r="F2">
-        <v>20.80010831221702</v>
-      </c>
-      <c r="G2">
-        <v>14.430059118566914</v>
-      </c>
-      <c r="H2">
-        <v>14.638204290653045</v>
-      </c>
-      <c r="I2">
-        <v>28.664074774629466</v>
-      </c>
-      <c r="J2">
-        <v>19.761168709295447</v>
-      </c>
-      <c r="K2">
-        <v>7.2692007773214389</v>
-      </c>
-      <c r="L2">
-        <v>2.9054100128436056</v>
-      </c>
-      <c r="M2">
-        <v>3.6447894268203052</v>
-      </c>
-      <c r="N2">
-        <v>20.39778962424019</v>
-      </c>
-      <c r="P2">
-        <v>33.315807041807759</v>
-      </c>
-      <c r="Q2">
-        <v>1.4634964345248784</v>
-      </c>
-      <c r="R2">
-        <v>-6.7848162476356624</v>
-      </c>
-      <c r="T2">
-        <v>30.528725305740728</v>
-      </c>
-      <c r="U2">
-        <v>2.8026655571576029</v>
-      </c>
-      <c r="V2">
-        <v>19.541788934629032</v>
-      </c>
-      <c r="W2">
-        <v>-16.795323398232405</v>
-      </c>
-      <c r="X2">
-        <v>4.7395334166419705</v>
-      </c>
-      <c r="Y2">
-        <v>35.405841285953663</v>
-      </c>
-      <c r="Z2">
-        <v>21.694346045653933</v>
-      </c>
-      <c r="AA2">
-        <v>25.947834044409507</v>
-      </c>
-      <c r="AB2">
-        <v>18.389491024181567</v>
-      </c>
-      <c r="AC2">
-        <v>3.6614975505448353</v>
-      </c>
-      <c r="AD2">
-        <v>37.777599063643279</v>
-      </c>
-      <c r="AE2">
-        <v>19.350450435244589</v>
-      </c>
-      <c r="AF2">
-        <v>24.635571257896274</v>
-      </c>
-      <c r="AG2">
-        <v>27.496012651176173</v>
-      </c>
-      <c r="AH2">
-        <v>27.876577970912898</v>
-      </c>
-      <c r="AI2">
-        <v>18.827325093537194</v>
-      </c>
-      <c r="AJ2">
-        <v>17.144701244015177</v>
-      </c>
-      <c r="AK2">
-        <v>20.497179427595334</v>
-      </c>
-      <c r="AL2">
-        <v>-0.67708718217927055</v>
-      </c>
-      <c r="AM2">
-        <v>23.261607227371794</v>
-      </c>
       <c r="AO2">
-        <v>46.309431966814962</v>
+        <v>46.309431946028504</v>
       </c>
       <c r="AP2">
-        <v>31.886362808387759</v>
+        <v>31.886362772649573</v>
       </c>
       <c r="AR2">
-        <v>37.948620479236254</v>
+        <v>37.948620462770052</v>
       </c>
       <c r="AS2">
-        <v>31.663432893951104</v>
+        <v>31.663432851190031</v>
       </c>
       <c r="AT2">
-        <v>15.786326771303273</v>
+        <v>15.786326740966711</v>
       </c>
       <c r="AU2">
-        <v>15.902900477041623</v>
+        <v>15.902900446394586</v>
       </c>
       <c r="AV2">
-        <v>5.1062206974513948</v>
+        <v>5.1062206422037351</v>
       </c>
       <c r="AW2">
-        <v>9.6545045688897364</v>
+        <v>9.6545045302682286</v>
       </c>
       <c r="AX2">
-        <v>29.721764550830144</v>
+        <v>29.721764504102467</v>
       </c>
       <c r="AY2">
-        <v>43.107569289998594</v>
+        <v>43.107569247971547</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.0476729315599353</v>
+      </c>
+      <c r="C3">
+        <v>10.325956596772961</v>
+      </c>
+      <c r="D3">
+        <v>31.439177822270871</v>
+      </c>
+      <c r="E3">
+        <v>41.312682369617349</v>
+      </c>
+      <c r="F3">
+        <v>12.407471448631052</v>
+      </c>
+      <c r="G3">
+        <v>21.778022436228138</v>
+      </c>
+      <c r="H3">
+        <v>0.61518419890345222</v>
+      </c>
+      <c r="I3">
+        <v>7.3853780189376952</v>
+      </c>
+      <c r="J3">
+        <v>24.165212591067462</v>
+      </c>
+      <c r="K3">
+        <v>45.153185960094319</v>
+      </c>
+      <c r="L3">
+        <v>32.889205442368436</v>
+      </c>
+      <c r="M3">
+        <v>-2.7525407559998176</v>
+      </c>
+      <c r="N3">
         <v>16.455616307195758</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-7.741317205820601</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>26.585085823137568</v>
+      </c>
+      <c r="Q3">
+        <v>13.740506934662752</v>
+      </c>
+      <c r="R3">
+        <v>-2.4586860437331035</v>
+      </c>
+      <c r="S3">
+        <v>28.769803685291418</v>
+      </c>
+      <c r="T3">
+        <v>34.211373993605498</v>
+      </c>
+      <c r="U3">
+        <v>19.489736615380476</v>
+      </c>
+      <c r="V3">
+        <v>28.578657853408718</v>
+      </c>
+      <c r="W3">
+        <v>-1.7903250896843617</v>
+      </c>
+      <c r="X3">
+        <v>-2.9221554817546389</v>
+      </c>
+      <c r="Y3">
+        <v>38.354444178086268</v>
+      </c>
+      <c r="Z3">
+        <v>23.777280052305926</v>
+      </c>
+      <c r="AA3">
+        <v>28.182645264396715</v>
+      </c>
+      <c r="AB3">
+        <v>24.212986751386399</v>
+      </c>
+      <c r="AC3">
+        <v>42.33567184618034</v>
+      </c>
+      <c r="AD3">
+        <v>39.912816899250871</v>
+      </c>
+      <c r="AE3">
+        <v>36.20522288788181</v>
+      </c>
+      <c r="AF3">
+        <v>21.151441533003823</v>
+      </c>
+      <c r="AG3">
+        <v>13.032686292649926</v>
+      </c>
+      <c r="AH3">
+        <v>8.0855489106240643</v>
+      </c>
+      <c r="AI3">
+        <v>23.666155559078057</v>
+      </c>
+      <c r="AJ3">
+        <v>39.974132003956939</v>
+      </c>
+      <c r="AK3">
+        <v>30.02909592525393</v>
+      </c>
+      <c r="AL3">
+        <v>16.676137039333408</v>
+      </c>
+      <c r="AM3">
         <v>14.833894731861719</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-13.611244854621201</v>
       </c>
-      <c r="F3">
-        <v>12.407471484928305</v>
-      </c>
-      <c r="G3">
-        <v>21.778022454276432</v>
-      </c>
-      <c r="H3">
-        <v>0.61518421799629919</v>
-      </c>
-      <c r="I3">
-        <v>7.3853780333336827</v>
-      </c>
-      <c r="J3">
-        <v>24.165212600760832</v>
-      </c>
-      <c r="K3">
-        <v>45.153185981510944</v>
-      </c>
-      <c r="L3">
-        <v>32.889205467690104</v>
-      </c>
-      <c r="M3">
-        <v>-2.752296568138203</v>
-      </c>
-      <c r="N3">
-        <v>16.455616334405779</v>
-      </c>
-      <c r="O3">
-        <v>-7.7413171827190803</v>
-      </c>
-      <c r="P3">
-        <v>26.585085882621623</v>
-      </c>
-      <c r="Q3">
-        <v>13.740506945924583</v>
-      </c>
-      <c r="R3">
-        <v>-2.4586860194178843</v>
-      </c>
-      <c r="S3">
-        <v>28.769803692288747</v>
-      </c>
-      <c r="T3">
-        <v>34.211374024888514</v>
-      </c>
-      <c r="U3">
-        <v>19.489736638428859</v>
-      </c>
-      <c r="V3">
-        <v>28.578657902228322</v>
-      </c>
-      <c r="W3">
-        <v>-1.7903250690398824</v>
-      </c>
-      <c r="X3">
-        <v>-2.9221554617856484</v>
-      </c>
-      <c r="Y3">
-        <v>38.354444226914381</v>
-      </c>
-      <c r="Z3">
-        <v>23.777280095507493</v>
-      </c>
-      <c r="AA3">
-        <v>28.182645300019537</v>
-      </c>
-      <c r="AB3">
-        <v>24.212986798292775</v>
-      </c>
-      <c r="AC3">
-        <v>42.335671874447954</v>
-      </c>
-      <c r="AD3">
-        <v>39.912816935061421</v>
-      </c>
-      <c r="AE3">
-        <v>36.205222908703654</v>
-      </c>
-      <c r="AF3">
-        <v>21.151441567593295</v>
-      </c>
-      <c r="AG3">
-        <v>13.032686316264799</v>
-      </c>
-      <c r="AH3">
-        <v>8.0855489333817232</v>
-      </c>
-      <c r="AI3">
-        <v>23.666155608177004</v>
-      </c>
-      <c r="AJ3">
-        <v>39.974132022686419</v>
-      </c>
-      <c r="AK3">
-        <v>30.029095973944614</v>
-      </c>
-      <c r="AL3">
-        <v>16.676137081691376</v>
-      </c>
-      <c r="AM3">
-        <v>14.833894780660092</v>
-      </c>
-      <c r="AN3">
-        <v>-13.611244827237398</v>
-      </c>
       <c r="AO3">
-        <v>37.945496489595712</v>
+        <v>37.945496398415116</v>
       </c>
       <c r="AP3">
-        <v>9.6081685116117157</v>
+        <v>9.6081684752772851</v>
       </c>
       <c r="AQ3">
-        <v>24.051862629365999</v>
+        <v>24.051862618030981</v>
       </c>
       <c r="AR3">
-        <v>45.734079245937096</v>
+        <v>45.734079222020476</v>
       </c>
       <c r="AS3">
-        <v>30.052716829084186</v>
+        <v>30.052716797804308</v>
       </c>
       <c r="AT3">
-        <v>25.78326960489084</v>
+        <v>25.783269550462943</v>
       </c>
       <c r="AU3">
-        <v>19.763208130705753</v>
+        <v>19.763208169406663</v>
       </c>
       <c r="AV3">
-        <v>9.8611339846617234</v>
+        <v>9.8611339395199646</v>
       </c>
       <c r="AW3">
-        <v>9.3569717199532985</v>
+        <v>9.3569716844294071</v>
       </c>
       <c r="AX3">
-        <v>14.024380072581597</v>
+        <v>14.024380042749346</v>
       </c>
       <c r="AY3">
-        <v>43.754098369060927</v>
+        <v>43.754098313030276</v>
       </c>
     </row>
   </sheetData>
